--- a/data_sorting/file_output_formatted.xlsx
+++ b/data_sorting/file_output_formatted.xlsx
@@ -173,7 +173,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
